--- a/diagrama_gantt.xlsx
+++ b/diagrama_gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni Tormo\Desktop\Uni\4_GTDM\Games\Juego 2D\Games-Juego2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F75EE0-5127-4592-9BDF-8C846BACDC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B450E-4ECE-4CED-AFDC-571A5535833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Diseño de Monstruos</t>
   </si>
@@ -98,6 +98,342 @@
   </si>
   <si>
     <t>12 h</t>
+  </si>
+  <si>
+    <r>
+      <t>Planteamiento de Ideas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Esta tarea va al inicio del proyecto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Creación del GDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño del Primer Monstruo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de la Primera Defensa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Estas tareas comienzan después del "Planteamiento de Ideas".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diseño de Monstruos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de Defensas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Comienzan solo cuando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño del Primer Monstruo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de la Primera Defensa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> han finalizado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Creación de Mapas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Puede comenzar de forma independiente después de que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de la Primera Defensa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> haya terminado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Montaje en Unity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Solo se inicia cuando se han completado las tareas de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creación del GDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creación de Mapas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño del Primer Monstruo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de la Primera Defensa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implementación de Código</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Comienza junto con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Montaje en Unity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pero con un día de retraso.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pruebas y Corrección de Errores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Esta fase se inicia al final, cuando todas las demás tareas están completas.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -156,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +501,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +822,7 @@
     <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -501,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -518,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -535,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -552,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -569,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -585,8 +923,9 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -603,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -620,7 +959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -637,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -654,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -669,6 +1008,41 @@
       </c>
       <c r="E12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/diagrama_gantt.xlsx
+++ b/diagrama_gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni Tormo\Desktop\Uni\4_GTDM\Games\Juego 2D\Games-Juego2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B450E-4ECE-4CED-AFDC-571A5535833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E465A7C-B6AD-4692-A1C8-5C09BFF18533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Diseño de Monstruos</t>
   </si>
@@ -76,30 +76,6 @@
     <t>Planteamiento de ideas</t>
   </si>
   <si>
-    <t>2 h</t>
-  </si>
-  <si>
-    <t>1 h</t>
-  </si>
-  <si>
-    <t>4 h</t>
-  </si>
-  <si>
-    <t>1.5 h</t>
-  </si>
-  <si>
-    <t>5 h</t>
-  </si>
-  <si>
-    <t>6 h</t>
-  </si>
-  <si>
-    <t>10 h</t>
-  </si>
-  <si>
-    <t>12 h</t>
-  </si>
-  <si>
     <r>
       <t>Planteamiento de Ideas</t>
     </r>
@@ -434,6 +410,12 @@
       </rPr>
       <t>: Esta fase se inicia al final, cuando todas las demás tareas están completas.</t>
     </r>
+  </si>
+  <si>
+    <t>Inicio Proyecto</t>
+  </si>
+  <si>
+    <t>Final Proyecto</t>
   </si>
 </sst>
 </file>
@@ -502,7 +484,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,6 +500,1880 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800"/>
+              <a:t>Diagrama de Gannt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39438073334892543"/>
+          <c:y val="5.5445347921363658E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6594925634295716E-2"/>
+          <c:y val="0.2462037037037037"/>
+          <c:w val="0.89040507436570426"/>
+          <c:h val="0.64176727909011377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Inicio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gantt!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Planteamiento de ideas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Creación del GDD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño del Primer Monstruo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diseño de la Primera Defensa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diseño de Monstruos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diseño de Defensas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Creación de Mapas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Montaje en Unity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Implementación de Código</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pruebas y Corrección de Errores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gantt!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E81-45C0-8954-4B75785D87BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duración</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7E81-45C0-8954-4B75785D87BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gantt!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Planteamiento de ideas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Creación del GDD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño del Primer Monstruo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diseño de la Primera Defensa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diseño de Monstruos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diseño de Defensas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Creación de Mapas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Montaje en Unity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Implementación de Código</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pruebas y Corrección de Errores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gantt!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E81-45C0-8954-4B75785D87BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="444019327"/>
+        <c:axId val="544233759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444019327"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544233759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544233759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45608"/>
+          <c:min val="45590"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444019327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAB4BE7-2406-5CA3-95A4-05257CBCE4D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34205</cdr:x>
+      <cdr:y>0.92949</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39922</cdr:x>
+      <cdr:y>0.95529</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19EB0A2-6A6E-14EE-1EB2-D4BFDA3015E0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2689860" y="4118610"/>
+          <a:ext cx="449580" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="es-ES" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26841</cdr:x>
+      <cdr:y>0.9123</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37112</cdr:x>
+      <cdr:y>0.96045</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927B5EF9-4CB6-57FC-11DA-FE31DEDEEBB1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2110740" y="4042410"/>
+          <a:ext cx="807720" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" kern="1200"/>
+            <a:t>Ambos</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58107</cdr:x>
+      <cdr:y>0.93494</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63824</cdr:x>
+      <cdr:y>0.96073</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE3F5F4-5747-8A5B-DCD7-A46265E00AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4569460" y="4142740"/>
+          <a:ext cx="449580" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="es-ES" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5239</cdr:x>
+      <cdr:y>0.91774</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62661</cdr:x>
+      <cdr:y>0.96589</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="CuadroTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DD3C13-C359-CF5E-19A6-5D99B00EAF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4119880" y="4066540"/>
+          <a:ext cx="807720" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" kern="1200"/>
+            <a:t>Toni</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82913</cdr:x>
+      <cdr:y>0.93322</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8863</cdr:x>
+      <cdr:y>0.95901</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC84B3BE-2B68-576A-D4E1-7E3F94BE5B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6520180" y="4135120"/>
+          <a:ext cx="449580" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="es-ES" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7584</cdr:x>
+      <cdr:y>0.91602</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86111</cdr:x>
+      <cdr:y>0.96417</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="CuadroTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E69FB7-95B0-84CE-0150-E731A362F858}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5963920" y="4058920"/>
+          <a:ext cx="807720" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" kern="1200"/>
+            <a:t>Daniel</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,22 +2663,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -839,7 +2695,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -852,11 +2713,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -869,11 +2733,14 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -886,11 +2753,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -903,11 +2773,14 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -920,12 +2793,14 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -938,11 +2813,14 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -950,16 +2828,16 @@
         <v>45594</v>
       </c>
       <c r="C9" s="3">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -972,11 +2850,11 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
+      <c r="E10">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -989,11 +2867,11 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="E11">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1001,51 +2879,54 @@
         <v>45606</v>
       </c>
       <c r="C12" s="3">
-        <v>45606</v>
+        <v>45607</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
+      <c r="C16" s="5">
+        <v>45607</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>